--- a/some bug reports.xlsx
+++ b/some bug reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bug report 1" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,110 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Severity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>critical</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">   bug</t>
+    </r>
+  </si>
+  <si>
+    <t>Attachment:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Severity:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>minor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Reporter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Oleg Dyakov</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Priority:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>low</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>Assignee:</t>
@@ -379,7 +483,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">  Programmer  - 3</t>
+      <t xml:space="preserve">   Kornilov Konstantin</t>
     </r>
   </si>
   <si>
@@ -390,7 +494,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Severity:</t>
+      <t>Reporter:</t>
     </r>
     <r>
       <rPr>
@@ -398,16 +502,30 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t xml:space="preserve">     Oleg Dyakov</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Assignee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">     Programmer - 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Priority:   </t>
     </r>
     <r>
       <rPr>
@@ -416,7 +534,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>critical</t>
+      <t>high</t>
     </r>
   </si>
   <si>
@@ -424,135 +542,17 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Assignee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">   bug</t>
-    </r>
-  </si>
-  <si>
-    <t>Attachment:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Severity:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>minor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Reporter:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Oleg Dyakov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Priority:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>low</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Assignee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">   Kornilov Konstantin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Reporter:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">     Oleg Dyakov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Assignee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">     Programmer - 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Priority:   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>high</t>
+      <t xml:space="preserve">  Oleg Korneev</t>
     </r>
   </si>
 </sst>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1083,28 +1083,28 @@
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2197,12 +2199,12 @@
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3289,33 +3291,33 @@
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/some bug reports.xlsx
+++ b/some bug reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bug report 1" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Priority:   </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>high</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>Assignee:</t>
@@ -520,28 +534,14 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">     Programmer - 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Priority:   </t>
-    </r>
+      <t xml:space="preserve">  Oleg Korneev</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>high</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>Assignee:</t>
@@ -552,7 +552,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">  Oleg Korneev</t>
+      <t xml:space="preserve">     Viktor Lohvitzsky</t>
     </r>
   </si>
 </sst>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3312,7 +3314,7 @@
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
